--- a/raw-data-prep/raw_data/Distraction_Assignment_CH.xlsx
+++ b/raw-data-prep/raw_data/Distraction_Assignment_CH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$125</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -27,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +166,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -197,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,16 +377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C64" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -397,7 +402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -405,7 +410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -413,7 +418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -421,7 +426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -429,7 +434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -437,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -445,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -453,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -461,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -469,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -477,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -485,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -493,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -501,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -509,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -517,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -525,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -533,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -541,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -549,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -557,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -565,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -573,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -581,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -589,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -597,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -605,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -613,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -621,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -629,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -637,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -645,7 +650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -653,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -661,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -669,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -677,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -685,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -693,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -701,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -709,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -717,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -725,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -733,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -741,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -749,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -757,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -765,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -773,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -781,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -789,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -797,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -805,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -813,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -821,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -829,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -837,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -845,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -853,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -861,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -869,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -877,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -885,7 +890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -893,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -901,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -909,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -917,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -925,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -933,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -941,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -949,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -957,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -965,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -973,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -981,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -989,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1101,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>120</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>119</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -1365,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -1382,29 +1387,30 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
